--- a/USpop2015.xlsx
+++ b/USpop2015.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="0" windowWidth="21540" windowHeight="16095"/>
+    <workbookView xWindow="11565" yWindow="0" windowWidth="21540" windowHeight="16095"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -90,7 +90,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,9 +405,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7827751</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6.4596101554078314E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8223098</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6.7858580772068286E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8874605</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7.323494140683974E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8696428</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>7.1764590652631924E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7614632</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6.2837402718729105E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6465773</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5.3356798055229096E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4567005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.7687800592786286E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3123239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2.5773566842079928E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7721837</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>6.3722078926123152E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8160368</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6.7340920788953429E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9010319</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>7.4354879346397368E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9006747</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>7.4325402517771741E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8121086</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>6.7016758195988055E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7045154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5.8137961114005932E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5221103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4.3085542656160492E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3823169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3.1549523353822065E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1312838</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1.0833790800455082E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1316612</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1.0864934571796952E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1357293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1.1200641980900979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1253761</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1.0346276073490685E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>977038</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>8.0627048395118302E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>713179</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>5.885289799105263E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>451077</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3.7223738594532431E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>295817</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2.4411385816210537E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -522,373 +891,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7827751</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>6.4596101554078314E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8223098</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>6.7858580772068286E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8874605</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>7.323494140683974E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>8696428</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>7.1764590652631924E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7614632</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>6.2837402718729105E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6465773</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>5.3356798055229096E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4567005</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>3.7687800592786286E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3123239</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2.5773566842079928E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7721837</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>6.3722078926123152E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8160368</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>6.7340920788953429E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9010319</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>7.4354879346397368E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>9006747</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>7.4325402517771741E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8121086</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>6.7016758195988055E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>7045154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>5.8137961114005932E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5221103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>4.3085542656160492E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3823169</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3.1549523353822065E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1312838</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1.0833790800455082E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1316612</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1.0864934571796952E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1357293</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1.1200641980900979E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1253761</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1.0346276073490685E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
-        <v>977038</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>8.0627048395118302E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>713179</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>5.885289799105263E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1">
-        <v>451077</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>3.7223738594532431E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1">
-        <v>295817</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>2.4411385816210537E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>